--- a/temp/非带宽.xlsx
+++ b/temp/非带宽.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +564,669 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>182315IDC00077</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CDN IP</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>256</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
+36.156.94.0/24(CDN转让BEC使用)
+2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>182315IDC00077</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CDN IP</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>32</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
+</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>182315IDC00077</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CDN IP</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>256</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>202306</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
+36.156.94.0/24(CDN转让BEC使用)
+2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>182315IDC00077</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CDN IP</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>32</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>202306</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
+</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>182315IDC00158</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CDN IP</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>256</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>计费确认单未包含机柜IP，放在临时合同计提。【BEC新建】盐城移动新建2022-10-1节点正式上线  (YANC3CM)：IPV4：120.195.37.0/24；IPV6:2409:8C20:8AB1:28::/64</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>182315IDC00158</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CDN机架</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>CDNYANCCM</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>10A</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>4300</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>30100</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>182315IDC00158</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CDN机架</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>CDNYANCCM</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>10A</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>4300</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-25800</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>（剩余YANCCM2F-H-05转为BEC使用，编号更新为BECYANCCM2F-H-05）YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>45077</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/temp/非带宽.xlsx
+++ b/temp/非带宽.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -602,7 +602,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -618,12 +618,16 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
       <c r="N2" s="2" t="n">
-        <v>43497</v>
+        <v>44835</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
@@ -642,9 +646,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
-36.156.94.0/24(CDN转让BEC使用)
-2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
+          <t>计费确认单未包含机柜IP，放在临时合同计提。【BEC新建】盐城移动新建2022-10-1节点正式上线  (YANC3CM)：IPV4：120.195.37.0/24；IPV6:2409:8C20:8AB1:28::/64</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
@@ -654,7 +656,7 @@
         <v>44927</v>
       </c>
       <c r="Y2" s="2" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="3">
@@ -690,18 +692,18 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>带宽</t>
+          <t>机架</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CDN IP</t>
+          <t>CDN机架</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -711,22 +713,30 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>CDNYANCCM</t>
+        </is>
+      </c>
       <c r="N3" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10A</t>
+        </is>
+      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="Q3" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30100</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -735,8 +745,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
-</t>
+          <t>YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
@@ -746,7 +755,7 @@
         <v>44927</v>
       </c>
       <c r="Y3" s="2" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="4">
@@ -782,18 +791,18 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>带宽</t>
+          <t>机架</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CDN IP</t>
+          <t>CDN机架</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -803,33 +812,39 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>CDNYANCCM</t>
+        </is>
+      </c>
       <c r="N4" s="2" t="n">
-        <v>43497</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>44713</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>10A</t>
+        </is>
+      </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="Q4" t="n">
-        <v>256</v>
+        <v>-6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-25800</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
-36.156.94.0/24(CDN转让BEC使用)
-2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
+          <t>（剩余YANCCM2F-H-05转为BEC使用，编号更新为BECYANCCM2F-H-05）YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
@@ -839,7 +854,7 @@
         <v>44927</v>
       </c>
       <c r="Y4" s="2" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="5">
@@ -908,20 +923,21 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
-</t>
+          <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
+36.156.94.0/24(CDN转让BEC使用)
+2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
         </is>
       </c>
       <c r="U5" t="inlineStr"/>
@@ -972,7 +988,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -988,23 +1004,19 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" s="2" t="n">
-        <v>44835</v>
+        <v>43497</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1016,7 +1028,8 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>计费确认单未包含机柜IP，放在临时合同计提。【BEC新建】盐城移动新建2022-10-1节点正式上线  (YANC3CM)：IPV4：120.195.37.0/24；IPV6:2409:8C20:8AB1:28::/64</t>
+          <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
+</t>
         </is>
       </c>
       <c r="U6" t="inlineStr"/>
@@ -1026,7 +1039,7 @@
         <v>44927</v>
       </c>
       <c r="Y6" s="2" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="7">
@@ -1062,18 +1075,18 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>机架</t>
+          <t>带宽</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>CDN机架</t>
+          <t>CDN IP</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1083,39 +1096,33 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>CDNYANCCM</t>
-        </is>
-      </c>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>10A</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>7</v>
+        <v>256</v>
       </c>
       <c r="R7" t="n">
-        <v>30100</v>
+        <v>0</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
+          <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
+36.156.94.0/24(CDN转让BEC使用)
+2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
         </is>
       </c>
       <c r="U7" t="inlineStr"/>
@@ -1125,7 +1132,7 @@
         <v>44927</v>
       </c>
       <c r="Y7" s="2" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="8">
@@ -1161,18 +1168,18 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>机架</t>
+          <t>带宽</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>CDN机架</t>
+          <t>CDN IP</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1182,39 +1189,32 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>CDNYANCCM</t>
-        </is>
-      </c>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" s="2" t="n">
-        <v>44713</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>10A</t>
-        </is>
-      </c>
+        <v>43497</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>-6</v>
+        <v>32</v>
       </c>
       <c r="R8" t="n">
-        <v>-25800</v>
+        <v>0</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>（剩余YANCCM2F-H-05转为BEC使用，编号更新为BECYANCCM2F-H-05）YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
+          <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
+</t>
         </is>
       </c>
       <c r="U8" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
         <v>44927</v>
       </c>
       <c r="Y8" s="2" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
     </row>
   </sheetData>

--- a/temp/非带宽.xlsx
+++ b/temp/非带宽.xlsx
@@ -602,7 +602,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -618,16 +618,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" s="2" t="n">
-        <v>44835</v>
+        <v>43497</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
@@ -646,7 +642,9 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>计费确认单未包含机柜IP，放在临时合同计提。【BEC新建】盐城移动新建2022-10-1节点正式上线  (YANC3CM)：IPV4：120.195.37.0/24；IPV6:2409:8C20:8AB1:28::/64</t>
+          <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
+36.156.94.0/24(CDN转让BEC使用)
+2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
@@ -656,7 +654,7 @@
         <v>44927</v>
       </c>
       <c r="Y2" s="2" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="3">
@@ -692,18 +690,18 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>机架</t>
+          <t>带宽</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CDN机架</t>
+          <t>CDN IP</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -713,30 +711,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>CDNYANCCM</t>
-        </is>
-      </c>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>10A</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="R3" t="n">
-        <v>30100</v>
+        <v>0</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -745,7 +735,8 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
+          <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
+</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
@@ -755,7 +746,7 @@
         <v>44927</v>
       </c>
       <c r="Y3" s="2" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="4">
@@ -791,18 +782,18 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>机架</t>
+          <t>带宽</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CDN机架</t>
+          <t>CDN IP</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -812,39 +803,33 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>CDNYANCCM</t>
-        </is>
-      </c>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" s="2" t="n">
-        <v>44713</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>10A</t>
-        </is>
-      </c>
+        <v>43497</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-6</v>
+        <v>256</v>
       </c>
       <c r="R4" t="n">
-        <v>-25800</v>
+        <v>0</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>（剩余YANCCM2F-H-05转为BEC使用，编号更新为BECYANCCM2F-H-05）YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
+          <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
+36.156.94.0/24(CDN转让BEC使用)
+2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
@@ -854,7 +839,7 @@
         <v>44927</v>
       </c>
       <c r="Y4" s="2" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="5">
@@ -923,21 +908,20 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
-36.156.94.0/24(CDN转让BEC使用)
-2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
+          <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
+</t>
         </is>
       </c>
       <c r="U5" t="inlineStr"/>
@@ -988,7 +972,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1004,19 +988,23 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
       <c r="N6" s="2" t="n">
-        <v>43497</v>
+        <v>44835</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1028,8 +1016,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
-</t>
+          <t>计费确认单未包含机柜IP，放在临时合同计提。【BEC新建】盐城移动新建2022-10-1节点正式上线  (YANC3CM)：IPV4：120.195.37.0/24；IPV6:2409:8C20:8AB1:28::/64</t>
         </is>
       </c>
       <c r="U6" t="inlineStr"/>
@@ -1039,7 +1026,7 @@
         <v>44927</v>
       </c>
       <c r="Y6" s="2" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="7">
@@ -1075,18 +1062,18 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>带宽</t>
+          <t>机架</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>CDN IP</t>
+          <t>CDN机架</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1096,33 +1083,39 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>CDNYANCCM</t>
+        </is>
+      </c>
       <c r="N7" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>10A</t>
+        </is>
+      </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="Q7" t="n">
-        <v>256</v>
+        <v>7</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>30100</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
-36.156.94.0/24(CDN转让BEC使用)
-2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
+          <t>YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
         </is>
       </c>
       <c r="U7" t="inlineStr"/>
@@ -1132,7 +1125,7 @@
         <v>44927</v>
       </c>
       <c r="Y7" s="2" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="8">
@@ -1168,18 +1161,18 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>带宽</t>
+          <t>机架</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>CDN IP</t>
+          <t>CDN机架</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1189,32 +1182,39 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr"/>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>CDNYANCCM</t>
+        </is>
+      </c>
       <c r="N8" s="2" t="n">
-        <v>43497</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
+        <v>44713</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>10A</t>
+        </is>
+      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="Q8" t="n">
-        <v>32</v>
+        <v>-6</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>-25800</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
-</t>
+          <t>（剩余YANCCM2F-H-05转为BEC使用，编号更新为BECYANCCM2F-H-05）YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
         </is>
       </c>
       <c r="U8" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
         <v>44927</v>
       </c>
       <c r="Y8" s="2" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
     </row>
   </sheetData>

--- a/temp/非带宽.xlsx
+++ b/temp/非带宽.xlsx
@@ -602,7 +602,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -618,12 +618,16 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
       <c r="N2" s="2" t="n">
-        <v>43497</v>
+        <v>44835</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
@@ -642,9 +646,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
-36.156.94.0/24(CDN转让BEC使用)
-2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
+          <t>计费确认单未包含机柜IP，放在临时合同计提。【BEC新建】盐城移动新建2022-10-1节点正式上线  (YANC3CM)：IPV4：120.195.37.0/24；IPV6:2409:8C20:8AB1:28::/64</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
@@ -654,7 +656,7 @@
         <v>44927</v>
       </c>
       <c r="Y2" s="2" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="3">
@@ -690,18 +692,18 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>带宽</t>
+          <t>机架</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CDN IP</t>
+          <t>CDN机架</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -711,22 +713,30 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>CDNYANCCM</t>
+        </is>
+      </c>
       <c r="N3" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10A</t>
+        </is>
+      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="Q3" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30100</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -735,8 +745,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
-</t>
+          <t>YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
@@ -746,7 +755,7 @@
         <v>44927</v>
       </c>
       <c r="Y3" s="2" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="4">
@@ -782,18 +791,18 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>带宽</t>
+          <t>机架</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CDN IP</t>
+          <t>CDN机架</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -803,33 +812,39 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>CDNYANCCM</t>
+        </is>
+      </c>
       <c r="N4" s="2" t="n">
-        <v>43497</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>44713</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>10A</t>
+        </is>
+      </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="Q4" t="n">
-        <v>256</v>
+        <v>-6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-25800</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
-36.156.94.0/24(CDN转让BEC使用)
-2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
+          <t>（剩余YANCCM2F-H-05转为BEC使用，编号更新为BECYANCCM2F-H-05）YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
@@ -839,7 +854,7 @@
         <v>44927</v>
       </c>
       <c r="Y4" s="2" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="5">
@@ -908,20 +923,21 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
-</t>
+          <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
+36.156.94.0/24(CDN转让BEC使用)
+2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
         </is>
       </c>
       <c r="U5" t="inlineStr"/>
@@ -972,7 +988,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -988,23 +1004,19 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" s="2" t="n">
-        <v>44835</v>
+        <v>43497</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1016,7 +1028,8 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>计费确认单未包含机柜IP，放在临时合同计提。【BEC新建】盐城移动新建2022-10-1节点正式上线  (YANC3CM)：IPV4：120.195.37.0/24；IPV6:2409:8C20:8AB1:28::/64</t>
+          <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
+</t>
         </is>
       </c>
       <c r="U6" t="inlineStr"/>
@@ -1026,7 +1039,7 @@
         <v>44927</v>
       </c>
       <c r="Y6" s="2" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="7">
@@ -1062,18 +1075,18 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>机架</t>
+          <t>带宽</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>CDN机架</t>
+          <t>CDN IP</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1083,39 +1096,33 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>CDNYANCCM</t>
-        </is>
-      </c>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>10A</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>7</v>
+        <v>256</v>
       </c>
       <c r="R7" t="n">
-        <v>30100</v>
+        <v>0</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
+          <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
+36.156.94.0/24(CDN转让BEC使用)
+2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
         </is>
       </c>
       <c r="U7" t="inlineStr"/>
@@ -1125,7 +1132,7 @@
         <v>44927</v>
       </c>
       <c r="Y7" s="2" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="8">
@@ -1161,18 +1168,18 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>机架</t>
+          <t>带宽</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>CDN机架</t>
+          <t>CDN IP</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1182,39 +1189,32 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>CDNYANCCM</t>
-        </is>
-      </c>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" s="2" t="n">
-        <v>44713</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>10A</t>
-        </is>
-      </c>
+        <v>43497</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>-6</v>
+        <v>32</v>
       </c>
       <c r="R8" t="n">
-        <v>-25800</v>
+        <v>0</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>（剩余YANCCM2F-H-05转为BEC使用，编号更新为BECYANCCM2F-H-05）YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
+          <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
+</t>
         </is>
       </c>
       <c r="U8" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
         <v>44927</v>
       </c>
       <c r="Y8" s="2" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
     </row>
   </sheetData>

--- a/temp/非带宽.xlsx
+++ b/temp/非带宽.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +564,596 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>代理商-电信</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>甘肃</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>王超越</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>上海云瑞智通实业有限公司</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>云瑞智通</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>182315IDC00313</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CDN IP</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>兰州</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>兰州6电信</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>CACDNLZCT</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>44441</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>288</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>20210902开始计费，免费288个，使用288个，125.74.110.0/24 125.74.26.0/27</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>代理商-电信</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>甘肃</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>王超越</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>上海云瑞智通实业有限公司</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>云瑞智通</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>182315IDC00313</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CDN IP</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>兰州</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>兰州6电信</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>CACDNLZCT</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>段</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>IPV6：免费提供</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>代理商-电信</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>甘肃</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>王超越</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>上海云瑞智通实业有限公司</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>云瑞智通</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>182315IDC00313</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CDN机架</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>兰州</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>兰州6电信</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>CACDNLZCT</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>44441</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>16A</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>20210902开始计费，LZ6CT2F202-L-13、LZ6CT2F202-L-1、LZ6CT2F202-L-14</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>代理商-电信</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湖北</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>王超越</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>上海云瑞智通实业有限公司</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>云瑞智通</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>182315IDC00137</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CDN IP</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>黄石</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>黄石6电信</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>CACDNHSCT</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>320</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>20211001开始计费，免费320个，使用288个，111.174.9.0/24 111.174.15.0/27</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>代理商-电信</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湖北</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>王超越</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>上海云瑞智通实业有限公司</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>云瑞智通</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>182315IDC00137</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CDN IP</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>黄石</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>黄石6电信</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>CACDNHSCT</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>段</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>IPV6：一段/64免费</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>代理商-电信</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湖北</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>王超越</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>上海云瑞智通实业有限公司</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>云瑞智通</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>182315IDC00137</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CDN机架</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>黄石</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>黄石6电信</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>CACDNHSCT</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>16A</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>3800</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>15200</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>需要注意机柜降价。20211001开始计费，HS6CT4F403-03-03、HS6CT4F403-03-04、HS6CT4F403-03-05、HS6CT4F403-03-06</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>45382</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/temp/非带宽.xlsx
+++ b/temp/非带宽.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +564,101 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>华北-lijia</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宁夏</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>崔益泽</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>中国联合网络通信有限公司中卫市分公司</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>宁夏联通</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>L20230727010</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CDN机架</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>中卫ZW2UN</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>中卫2联通</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>CDNZWUN2</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>18A</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3500</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>202311</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>CDNZWUN2:IDC1-SR101-BECC17</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/temp/非带宽.xlsx
+++ b/temp/非带宽.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,81 +567,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>代理商-电信</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>华北-lijia</t>
+          <t>LJ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>崔益泽</t>
+          <t>陈媛媛</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>中国联合网络通信有限公司中卫市分公司</t>
+          <t>吉林省优果网络传媒有限公司</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>宁夏联通</t>
+          <t>吉林优果</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>机架</t>
+          <t>带宽</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L20230727010</t>
+          <t>182315IDC00292</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>CDN机架</t>
+          <t>CDN IP</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>中卫ZW2UN</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>中卫2联通</t>
+          <t>沈阳3电信</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>CDNZWUN2</t>
+          <t>CACDNSYCT</t>
         </is>
       </c>
       <c r="N2" s="2" t="n">
-        <v>45117</v>
+        <v>44348</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>18A</t>
+          <t>个</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="R2" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -650,14 +650,909 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>CDNZWUN2:IDC1-SR101-BECC17</t>
+          <t>20210601开始计费，使用160个（59.44.25.0/25 59.44.25.128/27）</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="X2" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>代理商-电信</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>陈媛媛</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>吉林省优果网络传媒有限公司</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>吉林优果</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>182315IDC00292</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CDN IP</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>沈阳3电信</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>CACDNSYCT</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>段</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>202311</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>IPV6按需赠送</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>代理商-移动</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>陈媛媛</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>吉林省优果网络传媒有限公司</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>吉林优果</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>182315IDC00293</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CDN IP</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>天津4移动</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>CACDNTJCM2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>288</v>
+      </c>
+      <c r="R4" t="n">
+        <v>14400</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>202311</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>20210610开始计费，使用288个（111.31.84.0/24 111.31.85.0/27）</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>代理商-移动</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>陈媛媛</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>吉林省优果网络传媒有限公司</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>吉林优果</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>182315IDC00293</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CDN IP</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>天津4移动</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>CACDNTJCM2</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-128</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-6400</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>202311</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>20220810退租，退租111.31.84.128/25</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>代理商-移动</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>陈媛媛</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>吉林省优果网络传媒有限公司</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>吉林优果</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>182315IDC00293</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CDN IP</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>天津4移动</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>CACDNTJCM2</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>段</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>202311</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>IPV6：赠送/64个地址。</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>代理商-电信</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>陈媛媛</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>吉林省优果网络传媒有限公司</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>吉林优果</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>182315IDC00292</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CDN机架</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>沈阳3电信</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>CACDNSYCT</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>16A</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>12000</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>202311</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>20210601开始计费，SY3CT1F-H-07、SY3CT1F-H-09、SY3CT1F-H-08</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>代理商-电信</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>陈媛媛</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>吉林省优果网络传媒有限公司</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>吉林优果</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>182315IDC00292</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CDN机架</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>沈阳3电信</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>CACDNSYCT</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>16A</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>202311</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>SY3CT1F-H-07
+SY3CT1F-H-08
+SY3CT1F-H-09替换为CACDNSYCT:1F:101-H-CDN07 CACDNSYCT:1F:101-H-CDN08 CACDNSYCT:1F:101-H-CDN09</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>代理商-电信</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>陈媛媛</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>吉林省优果网络传媒有限公司</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>吉林优果</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>182315IDC00292</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CDN机架</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>沈阳3电信</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>CACDNSYCT</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>16A</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>12000</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>202311</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>SY3CT1F-H-07
+SY3CT1F-H-08
+SY3CT1F-H-09替换为CACDNSYCT:1F:101-H-CDN07 CACDNSYCT:1F:101-H-CDN08 CACDNSYCT:1F:101-H-CDN09</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>代理商-移动</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>陈媛媛</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>吉林省优果网络传媒有限公司</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>吉林优果</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>182315IDC00293</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CDN机架</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>天津4移动</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>CACDNTJCM2</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>16A</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>20000</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>202311</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>需要注意202306价格变动。20210601开始计费，TJ4CM203-F-01，TJ4CM203-F-02，TJ4CM203-F-03，TJ4CM203-F-04，TJ4CM203-F-05</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y10" s="2" t="n">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>代理商-移动</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>陈媛媛</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>吉林省优果网络传媒有限公司</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>吉林优果</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>182315IDC00293</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CDN机架</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>天津4移动</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>CACDNTJCM2</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>16A</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>202311</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>20220810退租，TJ4CM203-F-03,TJ4CM203-F-05,TJ4CM203-F-04</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>45443</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
